--- a/tests/testthat/helper_varInfo.xlsx
+++ b/tests/testthat/helper_varInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Var.Name</t>
   </si>
@@ -20,6 +20,9 @@
     <t xml:space="preserve">in.DS.und.SH</t>
   </si>
   <si>
+    <t xml:space="preserve">Unterteilung.im.Skalenhandbuch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Layout</t>
   </si>
   <si>
@@ -68,13 +71,16 @@
     <t xml:space="preserve">ja</t>
   </si>
   <si>
+    <t xml:space="preserve">Teil 1a</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Variable 1</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">1.01</t>
   </si>
   <si>
     <t xml:space="preserve">nein</t>
@@ -83,13 +89,25 @@
     <t xml:space="preserve">VAR2</t>
   </si>
   <si>
+    <t xml:space="preserve">Teil 1b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
     <t xml:space="preserve">VAR3</t>
   </si>
   <si>
+    <t xml:space="preserve">Teil 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01</t>
   </si>
 </sst>
 </file>
@@ -470,155 +488,167 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/helper_varInfo.xlsx
+++ b/tests/testthat/helper_varInfo.xlsx
@@ -1,121 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Packages\eatCodebook\tests\testthat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E0817-EE50-489A-8722-FD32E1E2778C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">Var.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in.DS.und.SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterteilung.im.Skalenhandbuch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabelSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anmerkung.Var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gliederung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reihenfolge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rekodiert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuelleSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruktionen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hintergrundmodell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGM.Reihenfolge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGM.Variable.erstellt.aus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intern.extern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seitenumbruch.im.Inhaltsverzeichnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teil 1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teil 1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teil 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+  <si>
+    <t>Var.Name</t>
+  </si>
+  <si>
+    <t>in.DS.und.SH</t>
+  </si>
+  <si>
+    <t>Unterteilung.im.Skalenhandbuch</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>LabelSH</t>
+  </si>
+  <si>
+    <t>Anmerkung.Var</t>
+  </si>
+  <si>
+    <t>Gliederung</t>
+  </si>
+  <si>
+    <t>Reihenfolge</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>rekodiert</t>
+  </si>
+  <si>
+    <t>QuelleSH</t>
+  </si>
+  <si>
+    <t>Instruktionen</t>
+  </si>
+  <si>
+    <t>Hintergrundmodell</t>
+  </si>
+  <si>
+    <t>HGM.Reihenfolge</t>
+  </si>
+  <si>
+    <t>HGM.Variable.erstellt.aus</t>
+  </si>
+  <si>
+    <t>intern.extern</t>
+  </si>
+  <si>
+    <t>Seitenumbruch.im.Inhaltsverzeichnis</t>
+  </si>
+  <si>
+    <t>VAR1</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Teil 1a</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>VAR2</t>
+  </si>
+  <si>
+    <t>Teil 1b</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>VAR3</t>
+  </si>
+  <si>
+    <t>Teil 2</t>
+  </si>
+  <si>
+    <t>Variable 3</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,9 +161,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -432,14 +454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -515,7 +539,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -545,7 +569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -568,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -598,7 +622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -653,6 +677,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/testthat/helper_varInfo.xlsx
+++ b/tests/testthat/helper_varInfo.xlsx
@@ -1,134 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Packages\eatCodebook\tests\testthat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93E0817-EE50-489A-8722-FD32E1E2778C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
-  <si>
-    <t>Var.Name</t>
-  </si>
-  <si>
-    <t>in.DS.und.SH</t>
-  </si>
-  <si>
-    <t>Unterteilung.im.Skalenhandbuch</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>LabelSH</t>
-  </si>
-  <si>
-    <t>Anmerkung.Var</t>
-  </si>
-  <si>
-    <t>Gliederung</t>
-  </si>
-  <si>
-    <t>Reihenfolge</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
-  <si>
-    <t>rekodiert</t>
-  </si>
-  <si>
-    <t>QuelleSH</t>
-  </si>
-  <si>
-    <t>Instruktionen</t>
-  </si>
-  <si>
-    <t>Hintergrundmodell</t>
-  </si>
-  <si>
-    <t>HGM.Reihenfolge</t>
-  </si>
-  <si>
-    <t>HGM.Variable.erstellt.aus</t>
-  </si>
-  <si>
-    <t>intern.extern</t>
-  </si>
-  <si>
-    <t>Seitenumbruch.im.Inhaltsverzeichnis</t>
-  </si>
-  <si>
-    <t>VAR1</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>Teil 1a</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>VAR2</t>
-  </si>
-  <si>
-    <t>Teil 1b</t>
-  </si>
-  <si>
-    <t>Variable 2</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>VAR3</t>
-  </si>
-  <si>
-    <t>Teil 2</t>
-  </si>
-  <si>
-    <t>Variable 3</t>
-  </si>
-  <si>
-    <t>2.01</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>NA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Var.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in.DS.und.SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterteilung.im.Skalenhandbuch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LabelSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkung.Var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gliederung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reihenfolge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rekodiert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuelleSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruktionen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hintergrundmodell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGM.Reihenfolge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGM.Variable.erstellt.aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intern.extern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seitenumbruch.im.Inhaltsverzeichnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teil 1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teil 1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teil 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,18 +148,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -454,16 +432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -538,9 +514,7 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>21</v>
       </c>
@@ -569,7 +543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -591,9 +565,7 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H3"/>
       <c r="I3" t="s">
         <v>26</v>
       </c>
@@ -622,7 +594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -644,9 +616,7 @@
       <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4"/>
       <c r="I4" t="s">
         <v>30</v>
       </c>
@@ -677,6 +647,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>